--- a/CourseLookup.xlsx
+++ b/CourseLookup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="392">
   <si>
     <t>Course Number</t>
   </si>
@@ -1166,6 +1166,30 @@
   </si>
   <si>
     <t>Humanities</t>
+  </si>
+  <si>
+    <t>Physical Education 10th Grade</t>
+  </si>
+  <si>
+    <t>HPE1010G</t>
+  </si>
+  <si>
+    <t>Global Hist &amp; Lit 2 H</t>
+  </si>
+  <si>
+    <t>Global Hist &amp; Lit 2 R</t>
+  </si>
+  <si>
+    <t>Alg2IT</t>
+  </si>
+  <si>
+    <t>Alg2/IT</t>
+  </si>
+  <si>
+    <t>PE910</t>
+  </si>
+  <si>
+    <t>PE 9/10</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1721,107 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2045,22 +2169,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5328,6 +5456,163 @@
       </c>
       <c r="J108" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>385</v>
+      </c>
+      <c r="B109" t="s">
+        <v>384</v>
+      </c>
+      <c r="C109" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>309</v>
+      </c>
+      <c r="G109">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>241</v>
+      </c>
+      <c r="I109" t="s">
+        <v>384</v>
+      </c>
+      <c r="J109" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" t="s">
+        <v>386</v>
+      </c>
+      <c r="C110" t="s">
+        <v>383</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>279</v>
+      </c>
+      <c r="G110" t="s">
+        <v>247</v>
+      </c>
+      <c r="H110" t="s">
+        <v>280</v>
+      </c>
+      <c r="I110" t="s">
+        <v>386</v>
+      </c>
+      <c r="J110" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" t="s">
+        <v>387</v>
+      </c>
+      <c r="C111" t="s">
+        <v>383</v>
+      </c>
+      <c r="D111">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>279</v>
+      </c>
+      <c r="G111" t="s">
+        <v>246</v>
+      </c>
+      <c r="H111" t="s">
+        <v>280</v>
+      </c>
+      <c r="I111" t="s">
+        <v>387</v>
+      </c>
+      <c r="J111" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>388</v>
+      </c>
+      <c r="B112" t="s">
+        <v>389</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>308</v>
+      </c>
+      <c r="G112" t="s">
+        <v>376</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" t="s">
+        <v>389</v>
+      </c>
+      <c r="J112" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>390</v>
+      </c>
+      <c r="B113" t="s">
+        <v>391</v>
+      </c>
+      <c r="C113" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>309</v>
+      </c>
+      <c r="H113" t="s">
+        <v>241</v>
+      </c>
+      <c r="I113" t="s">
+        <v>391</v>
+      </c>
+      <c r="J113" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -5336,18 +5621,36 @@
     <sortCondition ref="B2:B108"/>
   </sortState>
   <conditionalFormatting sqref="I82:I85">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B108">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I108">
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I110:I111">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110:B111">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I112">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="B114">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I108">
+  <conditionalFormatting sqref="I114">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
